--- a/code/outputs/p1_true_pred_results.xlsx
+++ b/code/outputs/p1_true_pred_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="71">
   <si>
     <t>doc_id</t>
   </si>
@@ -70,31 +70,136 @@
     <t>id_match_label</t>
   </si>
   <si>
+    <t>§ 275.0-2</t>
+  </si>
+  <si>
+    <t>§ 275.0-7</t>
+  </si>
+  <si>
     <t>§ 275.0-5</t>
   </si>
   <si>
-    <t>§ 275.0-7</t>
-  </si>
-  <si>
-    <t>§ 275.0-2</t>
+    <t>Fact Type</t>
   </si>
   <si>
     <t>Operative Rule</t>
   </si>
   <si>
-    <t>Fact Type</t>
-  </si>
-  <si>
-    <t>§ 275.0-5None</t>
-  </si>
-  <si>
-    <t>§ 275.0-7None</t>
-  </si>
-  <si>
-    <t>§ 275.0-2None</t>
-  </si>
-  <si>
-    <t>documents-2024-11-29-4.json</t>
+    <t>§ 275.0-2['(a)']</t>
+  </si>
+  <si>
+    <t>§ 275.0-2['(a)(1)']</t>
+  </si>
+  <si>
+    <t>§ 275.0-2['(a)(2)']</t>
+  </si>
+  <si>
+    <t>§ 275.0-2['(a)(3)']</t>
+  </si>
+  <si>
+    <t>§ 275.0-2['(b)(1)']</t>
+  </si>
+  <si>
+    <t>§ 275.0-2['(b)(2)']</t>
+  </si>
+  <si>
+    <t>§ 275.0-2['(b)(3)']</t>
+  </si>
+  <si>
+    <t>§ 275.0-7['(a)']</t>
+  </si>
+  <si>
+    <t>§ 275.0-7['(a)(1)']</t>
+  </si>
+  <si>
+    <t>§ 275.0-7['(a)(2)']</t>
+  </si>
+  <si>
+    <t>§ 275.0-7['(a)(3)']</t>
+  </si>
+  <si>
+    <t>§ 275.0-7['(b)(1)']</t>
+  </si>
+  <si>
+    <t>§ 275.0-7['(b)(1)(i)(A)']</t>
+  </si>
+  <si>
+    <t>§ 275.0-7['(b)(1)(ii)']</t>
+  </si>
+  <si>
+    <t>§ 275.0-7['(b)(1)(iii)']</t>
+  </si>
+  <si>
+    <t>§ 275.0-7['(b)(1)(iv)']</t>
+  </si>
+  <si>
+    <t>§ 275.0-7['(b)(2)']</t>
+  </si>
+  <si>
+    <t>§ 275.0-5['(a)']</t>
+  </si>
+  <si>
+    <t>§ 275.0-5['(b)']</t>
+  </si>
+  <si>
+    <t>§ 275.0-5['(c)']</t>
+  </si>
+  <si>
+    <t>§ 275.0-5['(d)']</t>
+  </si>
+  <si>
+    <t>documents-2024-12-07-1.json</t>
+  </si>
+  <si>
+    <t>A person may serve process, pleadings, or other papers on a non-resident investment adviser, or on a non-resident general partner or non-resident managing agent of an investment adviser by serving any or all of its appointed agents.</t>
+  </si>
+  <si>
+    <t>A person may serve a non-resident investment adviser, non-resident general partner, or non-resident managing agent by furnishing the Commission with one copy of the process, pleadings, or papers, for each named party, and one additional copy for the Commission's records.</t>
+  </si>
+  <si>
+    <t>The Secretary of the Commission (Secretary) will promptly forward a copy to each named party by registered or certified mail at that party's last address filed with the Commission.</t>
+  </si>
+  <si>
+    <t>If the Secretary certifies that the Commission was served with process, pleadings, or other papers pursuant to paragraph (a)(1) of this section and forwarded these documents to a named party pursuant to paragraph (a)(2) of this section, this certification constitutes evidence of service upon that party.</t>
+  </si>
+  <si>
+    <t>Managing agent means any person, including a trustee, who directs or manages, or who participates in directing or managing, the affairs of any unincorporated organization or association other than a partnership.</t>
+  </si>
+  <si>
+    <t>Non-resident means an individual who resides in any place not subject to the jurisdiction of the United States; a corporation that is incorporated in or that has its principal office and place of business in any place not subject to the jurisdiction of the United States; and a partnership or other unincorporated organization or association that has its principal office and place of business in any place not subject to the jurisdiction of the United States.</t>
+  </si>
+  <si>
+    <t>Principal office and place of business has the same meaning as in § 275.203A-3(c) of this chapter.</t>
+  </si>
+  <si>
+    <t>The term small business or small organization for purposes of the Investment Advisers Act of 1940 shall mean an investment adviser that has assets under management of less than $25 million, or such higher amount as the Commission may by rule deem appropriate.</t>
+  </si>
+  <si>
+    <t>An investment adviser has assets under management, as defined under Section 203A(a)(3) of the Act and reported on its annual updating amendment to Form ADV, of less than $25 million, or such higher amount as the Commission may by rule deem appropriate.</t>
+  </si>
+  <si>
+    <t>An investment adviser did not have total assets of $5 million or more on the last day of the most recent fiscal year.</t>
+  </si>
+  <si>
+    <t>An investment adviser does not control, is not controlled by, and is not under common control with another investment adviser that has assets under management of $25 million or more, or any person (other than a natural person) that had total assets of $5 million or more on the last day of the most recent fiscal year.</t>
+  </si>
+  <si>
+    <t>Control means the power, directly or indirectly, to direct the management or policies of a person, whether through ownership of securities, by contract, or otherwise.</t>
+  </si>
+  <si>
+    <t>A person is presumed to control a corporation if the person directly or indirectly has the right to vote 25 percent or more of a class of the corporation's voting securities.</t>
+  </si>
+  <si>
+    <t>A person is presumed to control a partnership if the person has the right to receive upon dissolution, or has contributed, 25 percent or more of the capital of the partnership.</t>
+  </si>
+  <si>
+    <t>A person is presumed to control a limited liability company (LLC) if the person directly or indirectly has the right to vote 25 percent or more of a class of the interests of the LLC, has the right to receive upon dissolution, or has contributed, 25 percent or more of the capital of the LLC, or is an elected manager of the LLC.</t>
+  </si>
+  <si>
+    <t>A person is presumed to control a trust if the person is a trustee or managing agent of the trust.</t>
+  </si>
+  <si>
+    <t>Total assets means the total assets as shown on the balance sheet of the investment adviser or other person described above under paragraph (a)(3) of this section, or the balance sheet of the investment adviser or such other person with its subsidiaries consolidated, whichever is larger.</t>
   </si>
   <si>
     <t>Notice of the initiation of the proceeding will be published in the Federal Register and will indicate the earliest date upon which an order disposing of the matter may be entered.</t>
@@ -109,61 +214,16 @@
     <t>The Commission will order a hearing on the matter, if it appears that a hearing is necessary or appropriate in the public interest or for the protection of investors, upon the request of any interested person or upon its own motion.</t>
   </si>
   <si>
-    <t>For purposes of this rule, an “application” means any application for an order of the Commission under the Act other than an application for registration as an investment adviser.</t>
-  </si>
-  <si>
-    <t>The term small business or small organization for purposes of the Investment Advisers Act of 1940 shall mean an investment adviser that has assets under management of less than $25 million, or such higher amount as the Commission may by rule deem appropriate.</t>
-  </si>
-  <si>
-    <t>An investment adviser has assets under management, as defined under Section 203A(a)(3) of the Act and reported on its annual updating amendment to Form ADV, of less than $25 million, or such higher amount as the Commission may by rule deem appropriate.</t>
-  </si>
-  <si>
-    <t>An investment adviser did not have total assets of $5 million or more on the last day of the most recent fiscal year.</t>
-  </si>
-  <si>
-    <t>An investment adviser does not control, is not controlled by, and is not under common control with another investment adviser that has assets under management of $25 million or more, or any person (other than a natural person) that had total assets of $5 million or more on the last day of the most recent fiscal year.</t>
-  </si>
-  <si>
-    <t>Control means the power, directly or indirectly, to direct the management or policies of a person, whether through ownership of securities, by contract, or otherwise.</t>
-  </si>
-  <si>
-    <t>A person is presumed to control a corporation if the person directly or indirectly has the right to vote 25 percent or more of a class of the corporation's voting securities.</t>
-  </si>
-  <si>
-    <t>A person is presumed to control a partnership if the person has the right to receive upon dissolution, or has contributed, 25 percent or more of the capital of the partnership.</t>
-  </si>
-  <si>
-    <t>A person is presumed to control a limited liability company (LLC) if the person directly or indirectly has the right to vote 25 percent or more of a class of the interests of the LLC, has the right to receive upon dissolution, or has contributed, 25 percent or more of the capital of the LLC, or is an elected manager of the LLC.</t>
-  </si>
-  <si>
-    <t>A person is presumed to control a trust if the person is a trustee or managing agent of the trust.</t>
-  </si>
-  <si>
-    <t>Total assets means the total assets as shown on the balance sheet of the investment adviser or other person described above under paragraph (a)(3) of this section, or the balance sheet of the investment adviser or such other person with its subsidiaries consolidated, whichever is larger.</t>
-  </si>
-  <si>
-    <t>A person may serve process, pleadings, or other papers on a non-resident investment adviser, or on a non-resident general partner or non-resident managing agent of an investment adviser by serving any or all of its appointed agents.</t>
-  </si>
-  <si>
-    <t>A person may serve a non-resident investment adviser, non-resident general partner, or non-resident managing agent by furnishing the Commission with one copy of the process, pleadings, or papers, for each named party, and one additional copy for the Commission's records.</t>
-  </si>
-  <si>
-    <t>The Secretary of the Commission (Secretary) will promptly forward a copy to each named party by registered or certified mail at that party's last address filed with the Commission.</t>
-  </si>
-  <si>
-    <t>If the Secretary certifies that the Commission was served with process, pleadings, or other papers pursuant to paragraph (a)(1) of this section and forwarded these documents to a named party pursuant to paragraph (a)(2) of this section, this certification constitutes evidence of service upon that party.</t>
-  </si>
-  <si>
-    <t>Managing agent means any person, including a trustee, who directs or manages, or who participates in directing or managing, the affairs of any unincorporated organization or association other than a partnership.</t>
-  </si>
-  <si>
-    <t>Non-resident means an individual who resides in any place not subject to the jurisdiction of the United States; a corporation that is incorporated in or that has its principal office and place of business in any place not subject to the jurisdiction of the United States; and a partnership or other unincorporated organization or association that has its principal office and place of business in any place not subject to the jurisdiction of the United States.</t>
-  </si>
-  <si>
-    <t>Principal office and place of business has the same meaning as in § 275.203A-3(c) of this chapter.</t>
+    <t>For purposes of this rule, an application means any application for an order of the Commission under the Act other than an application for registration as an investment adviser.</t>
+  </si>
+  <si>
+    <t>If process, pleadings, or other papers are served on the Commission as described in this section, the Secretary of the Commission (Secretary) will promptly forward a copy to each named party by registered or certified mail at that party's last address filed with the Commission.</t>
   </si>
   <si>
     <t>identical</t>
+  </si>
+  <si>
+    <t>not-sure</t>
   </si>
   <si>
     <t>match</t>
@@ -612,37 +672,37 @@
         <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="K2" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="N2" t="b">
         <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>
       </c>
       <c r="Q2" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R2" t="b">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -665,43 +725,43 @@
         <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="N3" t="b">
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="P3" t="b">
         <v>1</v>
       </c>
       <c r="Q3" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R3" t="b">
         <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -718,49 +778,49 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6438848920863309</v>
       </c>
       <c r="M4" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="N4" t="b">
         <v>1</v>
       </c>
       <c r="O4" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="P4" t="b">
         <v>1</v>
       </c>
       <c r="Q4" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R4" t="b">
         <v>1</v>
       </c>
       <c r="S4" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -777,49 +837,49 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="J5" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="K5" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="N5" t="b">
         <v>1</v>
       </c>
       <c r="O5" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="P5" t="b">
         <v>1</v>
       </c>
       <c r="Q5" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R5" t="b">
         <v>1</v>
       </c>
       <c r="S5" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -836,49 +896,49 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="J6" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="K6" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="N6" t="b">
         <v>1</v>
       </c>
       <c r="O6" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="P6" t="b">
         <v>1</v>
       </c>
       <c r="Q6" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R6" t="b">
         <v>1</v>
       </c>
       <c r="S6" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -886,58 +946,58 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="J7" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="K7" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="N7" t="b">
         <v>1</v>
       </c>
       <c r="O7" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="P7" t="b">
         <v>1</v>
       </c>
       <c r="Q7" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R7" t="b">
         <v>1</v>
       </c>
       <c r="S7" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -945,58 +1005,58 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="J8" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="K8" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="N8" t="b">
         <v>1</v>
       </c>
       <c r="O8" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="P8" t="b">
         <v>1</v>
       </c>
       <c r="Q8" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R8" t="b">
         <v>1</v>
       </c>
       <c r="S8" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1007,55 +1067,55 @@
         <v>19</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I9" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="J9" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K9" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="N9" t="b">
         <v>1</v>
       </c>
       <c r="O9" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="P9" t="b">
         <v>1</v>
       </c>
       <c r="Q9" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R9" t="b">
         <v>1</v>
       </c>
       <c r="S9" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1066,55 +1126,55 @@
         <v>19</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I10" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="J10" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="K10" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="N10" t="b">
         <v>1</v>
       </c>
       <c r="O10" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="P10" t="b">
         <v>1</v>
       </c>
       <c r="Q10" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R10" t="b">
         <v>1</v>
       </c>
       <c r="S10" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1125,55 +1185,55 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I11" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="J11" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="K11" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="N11" t="b">
         <v>1</v>
       </c>
       <c r="O11" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="P11" t="b">
         <v>1</v>
       </c>
       <c r="Q11" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R11" t="b">
         <v>1</v>
       </c>
       <c r="S11" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1184,55 +1244,55 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H12" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I12" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="J12" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="K12" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="N12" t="b">
         <v>1</v>
       </c>
       <c r="O12" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="P12" t="b">
         <v>1</v>
       </c>
       <c r="Q12" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R12" t="b">
         <v>1</v>
       </c>
       <c r="S12" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1243,55 +1303,55 @@
         <v>19</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H13" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="I13" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="J13" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="K13" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="N13" t="b">
         <v>1</v>
       </c>
       <c r="O13" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="P13" t="b">
         <v>1</v>
       </c>
       <c r="Q13" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R13" t="b">
         <v>1</v>
       </c>
       <c r="S13" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1302,55 +1362,55 @@
         <v>19</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="H14" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I14" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="J14" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="K14" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="N14" t="b">
         <v>1</v>
       </c>
       <c r="O14" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="P14" t="b">
         <v>1</v>
       </c>
       <c r="Q14" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R14" t="b">
         <v>1</v>
       </c>
       <c r="S14" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1361,55 +1421,55 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G15" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="H15" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="I15" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="J15" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="K15" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="N15" t="b">
         <v>1</v>
       </c>
       <c r="O15" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="P15" t="b">
         <v>1</v>
       </c>
       <c r="Q15" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R15" t="b">
         <v>1</v>
       </c>
       <c r="S15" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1420,55 +1480,55 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G16" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="H16" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I16" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="J16" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="K16" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="N16" t="b">
         <v>1</v>
       </c>
       <c r="O16" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
       </c>
       <c r="Q16" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R16" t="b">
         <v>1</v>
       </c>
       <c r="S16" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1476,58 +1536,58 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G17" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="H17" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I17" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="J17" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="K17" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="N17" t="b">
         <v>1</v>
       </c>
       <c r="O17" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
       </c>
       <c r="Q17" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R17" t="b">
         <v>1</v>
       </c>
       <c r="S17" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1535,58 +1595,58 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G18" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H18" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I18" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="J18" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="K18" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="N18" t="b">
         <v>1</v>
       </c>
       <c r="O18" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="P18" t="b">
         <v>1</v>
       </c>
       <c r="Q18" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R18" t="b">
         <v>1</v>
       </c>
       <c r="S18" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1597,55 +1657,55 @@
         <v>20</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G19" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="H19" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I19" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="K19" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="N19" t="b">
         <v>1</v>
       </c>
       <c r="O19" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="P19" t="b">
         <v>1</v>
       </c>
       <c r="Q19" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R19" t="b">
         <v>1</v>
       </c>
       <c r="S19" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -1656,55 +1716,55 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G20" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="H20" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I20" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="J20" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="K20" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="N20" t="b">
         <v>1</v>
       </c>
       <c r="O20" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
       </c>
       <c r="Q20" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R20" t="b">
         <v>1</v>
       </c>
       <c r="S20" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -1715,10 +1775,10 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E21" t="s">
         <v>22</v>
@@ -1727,43 +1787,43 @@
         <v>22</v>
       </c>
       <c r="G21" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="H21" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="I21" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="J21" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="K21" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="N21" t="b">
         <v>1</v>
       </c>
       <c r="O21" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="P21" t="b">
         <v>1</v>
       </c>
       <c r="Q21" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R21" t="b">
         <v>1</v>
       </c>
       <c r="S21" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -1774,10 +1834,10 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E22" t="s">
         <v>22</v>
@@ -1786,43 +1846,43 @@
         <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="H22" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="I22" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="J22" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="K22" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="N22" t="b">
         <v>1</v>
       </c>
       <c r="O22" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="P22" t="b">
         <v>1</v>
       </c>
       <c r="Q22" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R22" t="b">
         <v>1</v>
       </c>
       <c r="S22" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -1833,55 +1893,55 @@
         <v>20</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G23" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="H23" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I23" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="J23" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="K23" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="N23" t="b">
         <v>1</v>
       </c>
       <c r="O23" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
       </c>
       <c r="Q23" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R23" t="b">
         <v>1</v>
       </c>
       <c r="S23" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/code/outputs/p1_true_pred_results.xlsx
+++ b/code/outputs/p1_true_pred_results.xlsx
@@ -70,49 +70,19 @@
     <t>id_match_label</t>
   </si>
   <si>
-    <t>§ 275.0-2</t>
-  </si>
-  <si>
     <t>§ 275.0-7</t>
   </si>
   <si>
     <t>§ 275.0-5</t>
   </si>
   <si>
+    <t>§ 275.0-2</t>
+  </si>
+  <si>
     <t>Fact Type</t>
   </si>
   <si>
     <t>Operative Rule</t>
-  </si>
-  <si>
-    <t>§ 275.0-2['(a)']</t>
-  </si>
-  <si>
-    <t>§ 275.0-2['(a)(1)']</t>
-  </si>
-  <si>
-    <t>§ 275.0-2['(a)(2)']</t>
-  </si>
-  <si>
-    <t>§ 275.0-2['(a)(3)']</t>
-  </si>
-  <si>
-    <t>§ 275.0-2['(b)(1)']</t>
-  </si>
-  <si>
-    <t>§ 275.0-2['(b)(2)']</t>
-  </si>
-  <si>
-    <t>§ 275.0-2['(b)(3)']</t>
-  </si>
-  <si>
-    <t>§ 275.0-2['(b)(2)(i)']</t>
-  </si>
-  <si>
-    <t>§ 275.0-2['(b)(2)(ii)']</t>
-  </si>
-  <si>
-    <t>§ 275.0-2['(b)(2)(iii)']</t>
   </si>
   <si>
     <t>§ 275.0-7['(a)']</t>
@@ -169,6 +139,36 @@
     <t>§ 275.0-5['(c)(2)']</t>
   </si>
   <si>
+    <t>§ 275.0-2['(a)']</t>
+  </si>
+  <si>
+    <t>§ 275.0-2['(a)(1)']</t>
+  </si>
+  <si>
+    <t>§ 275.0-2['(a)(2)']</t>
+  </si>
+  <si>
+    <t>§ 275.0-2['(a)(3)']</t>
+  </si>
+  <si>
+    <t>§ 275.0-2['(b)(1)']</t>
+  </si>
+  <si>
+    <t>§ 275.0-2['(b)(2)']</t>
+  </si>
+  <si>
+    <t>§ 275.0-2['(b)(3)']</t>
+  </si>
+  <si>
+    <t>§ 275.0-2['(b)(2)(i)']</t>
+  </si>
+  <si>
+    <t>§ 275.0-2['(b)(2)(ii)']</t>
+  </si>
+  <si>
+    <t>§ 275.0-2['(b)(2)(iii)']</t>
+  </si>
+  <si>
     <t>documents-2024-11-29-4.json</t>
   </si>
   <si>
@@ -197,45 +197,6 @@
   </si>
   <si>
     <t>documents-2024-12-02-9.json</t>
-  </si>
-  <si>
-    <t>A person may serve process, pleadings, or other papers on a non-resident investment adviser, or on a non-resident general partner or non-resident managing agent of an investment adviser by serving any or all of its appointed agents.</t>
-  </si>
-  <si>
-    <t>A person may serve a non-resident investment adviser, non-resident general partner, or non-resident managing agent by furnishing the Commission with one copy of the process, pleadings, or papers, for each named party, and one additional copy for the Commission's records.</t>
-  </si>
-  <si>
-    <t>The Secretary of the Commission (Secretary) will promptly forward a copy to each named party by registered or certified mail at that party's last address filed with the Commission.</t>
-  </si>
-  <si>
-    <t>If the Secretary certifies that the Commission was served with process, pleadings, or other papers pursuant to paragraph (a)(1) of this section and forwarded these documents to a named party pursuant to paragraph (a)(2) of this section, this certification constitutes evidence of service upon that party.</t>
-  </si>
-  <si>
-    <t>Managing agent means any person, including a trustee, who directs or manages, or who participates in directing or managing, the affairs of any unincorporated organization or association other than a partnership.</t>
-  </si>
-  <si>
-    <t>Non-resident means an individual who resides in any place not subject to the jurisdiction of the United States; a corporation that is incorporated in or that has its principal office and place of business in any place not subject to the jurisdiction of the United States; and a partnership or other unincorporated organization or association that has its principal office and place of business in any place not subject to the jurisdiction of the United States.</t>
-  </si>
-  <si>
-    <t>Principal office and place of business has the same meaning as in § 275.203A-3(c) of this chapter.</t>
-  </si>
-  <si>
-    <t>If process, pleadings, or other papers are served on the Commission as described in this section, the Secretary of the Commission (Secretary) will promptly forward a copy to each named party by registered or certified mail at that party's last address filed with the Commission.</t>
-  </si>
-  <si>
-    <t>Non-resident means: (i) An individual who resides in any place not subject to the jurisdiction of the United States; (ii) A corporation that is incorporated in or that has its principal office and place of business in any place not subject to the jurisdiction of the United States; and (iii) A partnership or other unincorporated organization or association that has its principal office and place of business in any place not subject to the jurisdiction of the United States.</t>
-  </si>
-  <si>
-    <t>Non-resident means an individual who resides in any place not subject to the jurisdiction of the United States.</t>
-  </si>
-  <si>
-    <t>Non-resident means a corporation that is incorporated in or that has its principal office and place of business in any place not subject to the jurisdiction of the United States.</t>
-  </si>
-  <si>
-    <t>Non-resident means a partnership or other unincorporated organization or association that has its principal office and place of business in any place not subject to the jurisdiction of the United States.</t>
-  </si>
-  <si>
-    <t>The Secretary of the Commission will promptly forward a copy to each named party by registered or certified mail at that party's last address filed with the Commission.</t>
   </si>
   <si>
     <t>The term small business or small organization for purposes of the Investment Advisers Act of 1940 shall mean an investment adviser that has assets under management of less than $25 million, or such higher amount as the Commission may by rule deem appropriate.</t>
@@ -308,6 +269,45 @@
   </si>
   <si>
     <t>The Commission will order a hearing on the matter upon its own motion.</t>
+  </si>
+  <si>
+    <t>A person may serve process, pleadings, or other papers on a non-resident investment adviser, or on a non-resident general partner or non-resident managing agent of an investment adviser by serving any or all of its appointed agents.</t>
+  </si>
+  <si>
+    <t>A person may serve a non-resident investment adviser, non-resident general partner, or non-resident managing agent by furnishing the Commission with one copy of the process, pleadings, or papers, for each named party, and one additional copy for the Commission's records.</t>
+  </si>
+  <si>
+    <t>The Secretary of the Commission (Secretary) will promptly forward a copy to each named party by registered or certified mail at that party's last address filed with the Commission.</t>
+  </si>
+  <si>
+    <t>If the Secretary certifies that the Commission was served with process, pleadings, or other papers pursuant to paragraph (a)(1) of this section and forwarded these documents to a named party pursuant to paragraph (a)(2) of this section, this certification constitutes evidence of service upon that party.</t>
+  </si>
+  <si>
+    <t>Managing agent means any person, including a trustee, who directs or manages, or who participates in directing or managing, the affairs of any unincorporated organization or association other than a partnership.</t>
+  </si>
+  <si>
+    <t>Non-resident means an individual who resides in any place not subject to the jurisdiction of the United States; a corporation that is incorporated in or that has its principal office and place of business in any place not subject to the jurisdiction of the United States; and a partnership or other unincorporated organization or association that has its principal office and place of business in any place not subject to the jurisdiction of the United States.</t>
+  </si>
+  <si>
+    <t>Principal office and place of business has the same meaning as in § 275.203A-3(c) of this chapter.</t>
+  </si>
+  <si>
+    <t>If process, pleadings, or other papers are served on the Commission as described in this section, the Secretary of the Commission (Secretary) will promptly forward a copy to each named party by registered or certified mail at that party's last address filed with the Commission.</t>
+  </si>
+  <si>
+    <t>Non-resident means: (i) An individual who resides in any place not subject to the jurisdiction of the United States; (ii) A corporation that is incorporated in or that has its principal office and place of business in any place not subject to the jurisdiction of the United States; and (iii) A partnership or other unincorporated organization or association that has its principal office and place of business in any place not subject to the jurisdiction of the United States.</t>
+  </si>
+  <si>
+    <t>Non-resident means an individual who resides in any place not subject to the jurisdiction of the United States.</t>
+  </si>
+  <si>
+    <t>Non-resident means a corporation that is incorporated in or that has its principal office and place of business in any place not subject to the jurisdiction of the United States.</t>
+  </si>
+  <si>
+    <t>Non-resident means a partnership or other unincorporated organization or association that has its principal office and place of business in any place not subject to the jurisdiction of the United States.</t>
+  </si>
+  <si>
+    <t>The Secretary of the Commission will promptly forward a copy to each named party by registered or certified mail at that party's last address filed with the Commission.</t>
   </si>
   <si>
     <t>For purposes of this rule, an application means any application for an order of the Commission under the Act other than an application for registration as an investment adviser.</t>
@@ -877,10 +877,10 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
         <v>25</v>
@@ -895,13 +895,13 @@
         <v>63</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="L4">
-        <v>0.6438848920863309</v>
+        <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N4" t="b">
         <v>1</v>
@@ -936,10 +936,10 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
         <v>26</v>
@@ -1166,10 +1166,10 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
         <v>21</v>
@@ -1178,19 +1178,19 @@
         <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J9" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="K9" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -1225,10 +1225,10 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
         <v>21</v>
@@ -1237,19 +1237,19 @@
         <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J10" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="K10" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -1284,31 +1284,31 @@
         <v>18</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -1343,31 +1343,31 @@
         <v>18</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I12" t="s">
         <v>52</v>
       </c>
       <c r="J12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -1402,10 +1402,10 @@
         <v>18</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E13" t="s">
         <v>21</v>
@@ -1414,25 +1414,25 @@
         <v>21</v>
       </c>
       <c r="G13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I13" t="s">
         <v>52</v>
       </c>
       <c r="J13" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.4206349206349206</v>
       </c>
       <c r="M13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N13" t="b">
         <v>1</v>
@@ -1461,10 +1461,10 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E14" t="s">
         <v>21</v>
@@ -1473,19 +1473,19 @@
         <v>21</v>
       </c>
       <c r="G14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I14" t="s">
         <v>52</v>
       </c>
       <c r="J14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -1520,10 +1520,10 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D15">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E15" t="s">
         <v>21</v>
@@ -1532,25 +1532,25 @@
         <v>21</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I15" t="s">
         <v>52</v>
       </c>
       <c r="J15" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="K15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.5723270440251572</v>
       </c>
       <c r="M15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N15" t="b">
         <v>1</v>
@@ -1579,10 +1579,10 @@
         <v>18</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E16" t="s">
         <v>21</v>
@@ -1591,19 +1591,19 @@
         <v>21</v>
       </c>
       <c r="G16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J16" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K16" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -1624,10 +1624,10 @@
         <v>102</v>
       </c>
       <c r="R16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1638,37 +1638,37 @@
         <v>18</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J17" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L17">
-        <v>0.6438848920863309</v>
+        <v>1</v>
       </c>
       <c r="M17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N17" t="b">
         <v>1</v>
@@ -1683,10 +1683,10 @@
         <v>102</v>
       </c>
       <c r="R17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1697,31 +1697,31 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J18" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K18" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -1742,10 +1742,10 @@
         <v>102</v>
       </c>
       <c r="R18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1756,10 +1756,10 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E19" t="s">
         <v>21</v>
@@ -1768,25 +1768,25 @@
         <v>21</v>
       </c>
       <c r="G19" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J19" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.7103825136612022</v>
       </c>
       <c r="M19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N19" t="b">
         <v>1</v>
@@ -1795,10 +1795,10 @@
         <v>102</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="R19" t="b">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E20" t="s">
         <v>21</v>
@@ -1827,19 +1827,19 @@
         <v>21</v>
       </c>
       <c r="G20" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H20" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J20" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K20" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -1860,10 +1860,10 @@
         <v>102</v>
       </c>
       <c r="R20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -1874,10 +1874,10 @@
         <v>18</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D21">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
         <v>21</v>
@@ -1886,19 +1886,19 @@
         <v>21</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H21" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J21" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K21" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -1919,10 +1919,10 @@
         <v>102</v>
       </c>
       <c r="R21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -1951,7 +1951,7 @@
         <v>23</v>
       </c>
       <c r="I22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J22" t="s">
         <v>61</v>
@@ -2010,19 +2010,19 @@
         <v>24</v>
       </c>
       <c r="I23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J23" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K23" t="s">
         <v>62</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.4206349206349206</v>
       </c>
       <c r="M23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N23" t="b">
         <v>1</v>
@@ -2057,10 +2057,10 @@
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G24" t="s">
         <v>25</v>
@@ -2069,13 +2069,13 @@
         <v>25</v>
       </c>
       <c r="I24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J24" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="K24" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -2116,10 +2116,10 @@
         <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G25" t="s">
         <v>26</v>
@@ -2128,7 +2128,7 @@
         <v>26</v>
       </c>
       <c r="I25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J25" t="s">
         <v>64</v>
@@ -2187,7 +2187,7 @@
         <v>27</v>
       </c>
       <c r="I26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J26" t="s">
         <v>65</v>
@@ -2246,19 +2246,19 @@
         <v>28</v>
       </c>
       <c r="I27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K27" t="s">
         <v>66</v>
       </c>
       <c r="L27">
-        <v>0.9600840336134454</v>
+        <v>1</v>
       </c>
       <c r="M27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N27" t="b">
         <v>1</v>
@@ -2305,7 +2305,7 @@
         <v>29</v>
       </c>
       <c r="I28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J28" t="s">
         <v>67</v>
@@ -2346,10 +2346,10 @@
         <v>18</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E29" t="s">
         <v>21</v>
@@ -2358,19 +2358,19 @@
         <v>21</v>
       </c>
       <c r="G29" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H29" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J29" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="K29" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -2405,10 +2405,10 @@
         <v>18</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E30" t="s">
         <v>21</v>
@@ -2417,19 +2417,19 @@
         <v>21</v>
       </c>
       <c r="G30" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H30" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J30" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="K30" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -2464,31 +2464,31 @@
         <v>18</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G31" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H31" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -2523,31 +2523,31 @@
         <v>18</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G32" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H32" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J32" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K32" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -2582,10 +2582,10 @@
         <v>18</v>
       </c>
       <c r="C33">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E33" t="s">
         <v>21</v>
@@ -2594,25 +2594,25 @@
         <v>21</v>
       </c>
       <c r="G33" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H33" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J33" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K33" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L33">
-        <v>1</v>
+        <v>0.4206349206349206</v>
       </c>
       <c r="M33" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N33" t="b">
         <v>1</v>
@@ -2641,10 +2641,10 @@
         <v>18</v>
       </c>
       <c r="C34">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D34">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E34" t="s">
         <v>21</v>
@@ -2653,25 +2653,25 @@
         <v>21</v>
       </c>
       <c r="G34" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H34" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J34" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K34" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L34">
-        <v>0.9600840336134454</v>
+        <v>1</v>
       </c>
       <c r="M34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N34" t="b">
         <v>1</v>
@@ -2700,10 +2700,10 @@
         <v>18</v>
       </c>
       <c r="C35">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D35">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E35" t="s">
         <v>21</v>
@@ -2712,25 +2712,25 @@
         <v>21</v>
       </c>
       <c r="G35" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H35" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J35" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="K35" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>0.5723270440251572</v>
       </c>
       <c r="M35" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N35" t="b">
         <v>1</v>
@@ -2759,10 +2759,10 @@
         <v>18</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E36" t="s">
         <v>21</v>
@@ -2771,19 +2771,19 @@
         <v>21</v>
       </c>
       <c r="G36" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H36" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I36" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J36" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K36" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L36">
         <v>1</v>
@@ -2818,37 +2818,37 @@
         <v>18</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G37" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H37" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I37" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J37" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L37">
-        <v>0.6438848920863309</v>
+        <v>1</v>
       </c>
       <c r="M37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N37" t="b">
         <v>1</v>
@@ -2863,10 +2863,10 @@
         <v>102</v>
       </c>
       <c r="R37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:19">
@@ -2877,31 +2877,31 @@
         <v>18</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D38">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G38" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H38" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I38" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J38" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K38" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L38">
         <v>1</v>
@@ -2922,10 +2922,10 @@
         <v>102</v>
       </c>
       <c r="R38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:19">
@@ -2936,10 +2936,10 @@
         <v>18</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D39">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E39" t="s">
         <v>21</v>
@@ -2948,25 +2948,25 @@
         <v>21</v>
       </c>
       <c r="G39" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H39" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I39" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J39" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="K39" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L39">
-        <v>1</v>
+        <v>0.9817629179331308</v>
       </c>
       <c r="M39" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="N39" t="b">
         <v>1</v>
@@ -2981,10 +2981,10 @@
         <v>102</v>
       </c>
       <c r="R39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:19">
@@ -2995,10 +2995,10 @@
         <v>18</v>
       </c>
       <c r="C40">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D40">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E40" t="s">
         <v>21</v>
@@ -3007,19 +3007,19 @@
         <v>21</v>
       </c>
       <c r="G40" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H40" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I40" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J40" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K40" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L40">
         <v>1</v>
@@ -3040,10 +3040,10 @@
         <v>102</v>
       </c>
       <c r="R40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:19">
@@ -3054,10 +3054,10 @@
         <v>18</v>
       </c>
       <c r="C41">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D41">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
         <v>21</v>
@@ -3066,19 +3066,19 @@
         <v>21</v>
       </c>
       <c r="G41" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H41" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I41" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J41" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K41" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L41">
         <v>1</v>
@@ -3099,10 +3099,10 @@
         <v>102</v>
       </c>
       <c r="R41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:19">
@@ -3131,7 +3131,7 @@
         <v>23</v>
       </c>
       <c r="I42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J42" t="s">
         <v>61</v>
@@ -3190,19 +3190,19 @@
         <v>24</v>
       </c>
       <c r="I43" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J43" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K43" t="s">
         <v>62</v>
       </c>
       <c r="L43">
-        <v>1</v>
+        <v>0.4206349206349206</v>
       </c>
       <c r="M43" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N43" t="b">
         <v>1</v>
@@ -3237,10 +3237,10 @@
         <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G44" t="s">
         <v>25</v>
@@ -3249,19 +3249,19 @@
         <v>25</v>
       </c>
       <c r="I44" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J44" t="s">
         <v>63</v>
       </c>
       <c r="K44" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="L44">
-        <v>0.6438848920863309</v>
+        <v>1</v>
       </c>
       <c r="M44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N44" t="b">
         <v>1</v>
@@ -3296,10 +3296,10 @@
         <v>4</v>
       </c>
       <c r="E45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G45" t="s">
         <v>26</v>
@@ -3308,19 +3308,19 @@
         <v>26</v>
       </c>
       <c r="I45" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J45" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="K45" t="s">
         <v>64</v>
       </c>
       <c r="L45">
-        <v>1</v>
+        <v>0.5723270440251572</v>
       </c>
       <c r="M45" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N45" t="b">
         <v>1</v>
@@ -3367,7 +3367,7 @@
         <v>27</v>
       </c>
       <c r="I46" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J46" t="s">
         <v>65</v>
@@ -3411,7 +3411,7 @@
         <v>6</v>
       </c>
       <c r="D47">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E47" t="s">
         <v>21</v>
@@ -3420,25 +3420,25 @@
         <v>21</v>
       </c>
       <c r="G47" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J47" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K47" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L47">
-        <v>0.3033175355450237</v>
+        <v>1</v>
       </c>
       <c r="M47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N47" t="b">
         <v>1</v>
@@ -3447,16 +3447,16 @@
         <v>102</v>
       </c>
       <c r="P47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="R47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S47" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:19">
@@ -3470,7 +3470,7 @@
         <v>7</v>
       </c>
       <c r="D48">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E48" t="s">
         <v>21</v>
@@ -3479,25 +3479,25 @@
         <v>21</v>
       </c>
       <c r="G48" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I48" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J48" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K48" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L48">
-        <v>0.3869565217391304</v>
+        <v>1</v>
       </c>
       <c r="M48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N48" t="b">
         <v>1</v>
@@ -3506,16 +3506,16 @@
         <v>102</v>
       </c>
       <c r="P48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="R48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S48" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:19">
@@ -3529,7 +3529,7 @@
         <v>8</v>
       </c>
       <c r="D49">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E49" t="s">
         <v>21</v>
@@ -3538,25 +3538,25 @@
         <v>21</v>
       </c>
       <c r="G49" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H49" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I49" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J49" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K49" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L49">
-        <v>0.441304347826087</v>
+        <v>1</v>
       </c>
       <c r="M49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N49" t="b">
         <v>1</v>
@@ -3565,16 +3565,16 @@
         <v>102</v>
       </c>
       <c r="P49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="R49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:19">
@@ -3588,7 +3588,7 @@
         <v>9</v>
       </c>
       <c r="D50">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E50" t="s">
         <v>21</v>
@@ -3597,19 +3597,19 @@
         <v>21</v>
       </c>
       <c r="G50" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H50" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I50" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J50" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K50" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L50">
         <v>1</v>
@@ -3630,10 +3630,10 @@
         <v>102</v>
       </c>
       <c r="R50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:19">
@@ -3644,10 +3644,10 @@
         <v>18</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
         <v>21</v>
@@ -3656,19 +3656,19 @@
         <v>21</v>
       </c>
       <c r="G51" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H51" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I51" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J51" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="K51" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="L51">
         <v>1</v>
@@ -3703,31 +3703,31 @@
         <v>18</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G52" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H52" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I52" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J52" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K52" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="L52">
         <v>1</v>
@@ -3748,10 +3748,10 @@
         <v>102</v>
       </c>
       <c r="R52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S52" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:19">
@@ -3762,31 +3762,31 @@
         <v>18</v>
       </c>
       <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53">
         <v>3</v>
       </c>
-      <c r="D53">
-        <v>4</v>
-      </c>
       <c r="E53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I53" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L53">
         <v>1</v>
@@ -3821,11 +3821,11 @@
         <v>18</v>
       </c>
       <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54">
         <v>4</v>
       </c>
-      <c r="D54">
-        <v>5</v>
-      </c>
       <c r="E54" t="s">
         <v>21</v>
       </c>
@@ -3833,25 +3833,25 @@
         <v>21</v>
       </c>
       <c r="G54" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H54" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I54" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J54" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="K54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L54">
-        <v>1</v>
+        <v>0.5723270440251572</v>
       </c>
       <c r="M54" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N54" t="b">
         <v>1</v>
@@ -3880,11 +3880,11 @@
         <v>18</v>
       </c>
       <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55">
         <v>5</v>
       </c>
-      <c r="D55">
-        <v>6</v>
-      </c>
       <c r="E55" t="s">
         <v>21</v>
       </c>
@@ -3892,19 +3892,19 @@
         <v>21</v>
       </c>
       <c r="G55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I55" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J55" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K55" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L55">
         <v>1</v>
@@ -3939,11 +3939,11 @@
         <v>18</v>
       </c>
       <c r="C56">
+        <v>5</v>
+      </c>
+      <c r="D56">
         <v>6</v>
       </c>
-      <c r="D56">
-        <v>7</v>
-      </c>
       <c r="E56" t="s">
         <v>21</v>
       </c>
@@ -3951,19 +3951,19 @@
         <v>21</v>
       </c>
       <c r="G56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I56" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J56" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K56" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L56">
         <v>1</v>
@@ -3998,10 +3998,10 @@
         <v>18</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E57" t="s">
         <v>21</v>
@@ -4010,19 +4010,19 @@
         <v>21</v>
       </c>
       <c r="G57" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H57" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I57" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J57" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="K57" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="L57">
         <v>1</v>
@@ -4043,10 +4043,10 @@
         <v>102</v>
       </c>
       <c r="R57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S57" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58" spans="1:19">
@@ -4057,10 +4057,10 @@
         <v>18</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E58" t="s">
         <v>21</v>
@@ -4069,19 +4069,19 @@
         <v>21</v>
       </c>
       <c r="G58" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H58" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I58" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J58" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K58" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L58">
         <v>1</v>
@@ -4102,10 +4102,10 @@
         <v>102</v>
       </c>
       <c r="R58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S58" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59" spans="1:19">
@@ -4116,31 +4116,31 @@
         <v>18</v>
       </c>
       <c r="C59">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D59">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G59" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H59" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I59" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J59" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K59" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L59">
         <v>1</v>
@@ -4161,10 +4161,10 @@
         <v>102</v>
       </c>
       <c r="R59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S59" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:19">
@@ -4175,31 +4175,31 @@
         <v>18</v>
       </c>
       <c r="C60">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D60">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G60" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H60" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I60" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J60" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="K60" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="L60">
         <v>1</v>
@@ -4220,10 +4220,10 @@
         <v>102</v>
       </c>
       <c r="R60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S60" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="1:19">
@@ -4234,10 +4234,10 @@
         <v>18</v>
       </c>
       <c r="C61">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D61">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E61" t="s">
         <v>21</v>
@@ -4246,19 +4246,19 @@
         <v>21</v>
       </c>
       <c r="G61" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H61" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I61" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J61" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K61" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L61">
         <v>1</v>
@@ -4293,10 +4293,10 @@
         <v>18</v>
       </c>
       <c r="C62">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D62">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E62" t="s">
         <v>21</v>
@@ -4305,25 +4305,25 @@
         <v>21</v>
       </c>
       <c r="G62" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H62" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I62" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J62" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K62" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="L62">
-        <v>0.9600840336134454</v>
+        <v>0.4206349206349206</v>
       </c>
       <c r="M62" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N62" t="b">
         <v>1</v>
@@ -4352,10 +4352,10 @@
         <v>18</v>
       </c>
       <c r="C63">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D63">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E63" t="s">
         <v>21</v>
@@ -4364,19 +4364,19 @@
         <v>21</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H63" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I63" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J63" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K63" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L63">
         <v>1</v>
@@ -4411,10 +4411,10 @@
         <v>18</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E64" t="s">
         <v>21</v>
@@ -4423,25 +4423,25 @@
         <v>21</v>
       </c>
       <c r="G64" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H64" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I64" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J64" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="K64" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L64">
-        <v>1</v>
+        <v>0.5723270440251572</v>
       </c>
       <c r="M64" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N64" t="b">
         <v>1</v>
@@ -4470,37 +4470,37 @@
         <v>18</v>
       </c>
       <c r="C65">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G65" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H65" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I65" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J65" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K65" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L65">
-        <v>0.6007194244604317</v>
+        <v>1</v>
       </c>
       <c r="M65" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N65" t="b">
         <v>1</v>
@@ -4515,10 +4515,10 @@
         <v>102</v>
       </c>
       <c r="R65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:19">
@@ -4529,31 +4529,31 @@
         <v>18</v>
       </c>
       <c r="C66">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D66">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G66" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H66" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I66" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J66" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K66" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L66">
         <v>1</v>
@@ -4574,10 +4574,10 @@
         <v>102</v>
       </c>
       <c r="R66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S66" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:19">
@@ -4588,10 +4588,10 @@
         <v>18</v>
       </c>
       <c r="C67">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D67">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E67" t="s">
         <v>21</v>
@@ -4600,19 +4600,19 @@
         <v>21</v>
       </c>
       <c r="G67" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H67" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I67" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J67" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K67" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L67">
         <v>1</v>
@@ -4633,10 +4633,10 @@
         <v>102</v>
       </c>
       <c r="R67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S67" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:19">
@@ -4647,7 +4647,7 @@
         <v>18</v>
       </c>
       <c r="C68">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D68">
         <v>6</v>
@@ -4659,25 +4659,25 @@
         <v>21</v>
       </c>
       <c r="G68" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H68" t="s">
         <v>28</v>
       </c>
       <c r="I68" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J68" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="K68" t="s">
         <v>66</v>
       </c>
       <c r="L68">
-        <v>1</v>
+        <v>0.7103825136612022</v>
       </c>
       <c r="M68" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N68" t="b">
         <v>1</v>
@@ -4686,10 +4686,10 @@
         <v>102</v>
       </c>
       <c r="P68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="R68" t="b">
         <v>0</v>
@@ -4706,10 +4706,10 @@
         <v>18</v>
       </c>
       <c r="C69">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D69">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E69" t="s">
         <v>21</v>
@@ -4718,19 +4718,19 @@
         <v>21</v>
       </c>
       <c r="G69" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H69" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I69" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J69" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K69" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L69">
         <v>1</v>
@@ -4751,10 +4751,10 @@
         <v>102</v>
       </c>
       <c r="R69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S69" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:19">
@@ -4762,13 +4762,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
         <v>21</v>
@@ -4777,19 +4777,19 @@
         <v>21</v>
       </c>
       <c r="G70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I70" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J70" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K70" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L70">
         <v>1</v>
@@ -4821,13 +4821,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E71" t="s">
         <v>21</v>
@@ -4836,25 +4836,25 @@
         <v>21</v>
       </c>
       <c r="G71" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="H71" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I71" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="J71" t="s">
         <v>75</v>
       </c>
       <c r="K71" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="L71">
-        <v>1</v>
+        <v>0.4640287769784173</v>
       </c>
       <c r="M71" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N71" t="b">
         <v>1</v>
@@ -4863,16 +4863,16 @@
         <v>102</v>
       </c>
       <c r="P71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="R71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S71" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="72" spans="1:19">
@@ -4880,13 +4880,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E72" t="s">
         <v>21</v>
@@ -4895,25 +4895,25 @@
         <v>21</v>
       </c>
       <c r="G72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H72" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I72" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="J72" t="s">
         <v>76</v>
       </c>
       <c r="K72" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="L72">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="M72" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N72" t="b">
         <v>1</v>
@@ -4922,16 +4922,16 @@
         <v>102</v>
       </c>
       <c r="P72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="R72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S72" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73" spans="1:19">
@@ -4939,13 +4939,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C73">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E73" t="s">
         <v>21</v>
@@ -4954,19 +4954,19 @@
         <v>21</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H73" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I73" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="J73" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="K73" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="L73">
         <v>1</v>
@@ -4987,10 +4987,10 @@
         <v>102</v>
       </c>
       <c r="R73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S73" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="74" spans="1:19">
@@ -4998,13 +4998,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C74">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E74" t="s">
         <v>21</v>
@@ -5013,25 +5013,25 @@
         <v>21</v>
       </c>
       <c r="G74" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H74" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I74" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="J74" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K74" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="L74">
-        <v>1</v>
+        <v>0.9817629179331308</v>
       </c>
       <c r="M74" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="N74" t="b">
         <v>1</v>
@@ -5046,10 +5046,10 @@
         <v>102</v>
       </c>
       <c r="R74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S74" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="75" spans="1:19">
@@ -5057,13 +5057,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C75">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D75">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E75" t="s">
         <v>21</v>
@@ -5072,19 +5072,19 @@
         <v>21</v>
       </c>
       <c r="G75" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H75" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="I75" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="J75" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="K75" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="L75">
         <v>1</v>
@@ -5105,10 +5105,10 @@
         <v>102</v>
       </c>
       <c r="R75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S75" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="76" spans="1:19">
@@ -5116,13 +5116,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C76">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D76">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
         <v>21</v>
@@ -5131,19 +5131,19 @@
         <v>21</v>
       </c>
       <c r="G76" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H76" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I76" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="J76" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K76" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="L76">
         <v>1</v>
@@ -5164,10 +5164,10 @@
         <v>102</v>
       </c>
       <c r="R76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S76" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="77" spans="1:19">
@@ -5175,13 +5175,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C77">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D77">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E77" t="s">
         <v>21</v>
@@ -5190,19 +5190,19 @@
         <v>21</v>
       </c>
       <c r="G77" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H77" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="I77" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="J77" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="K77" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="L77">
         <v>1</v>
@@ -5234,13 +5234,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C78">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D78">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E78" t="s">
         <v>21</v>
@@ -5249,25 +5249,25 @@
         <v>21</v>
       </c>
       <c r="G78" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="H78" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I78" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="J78" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="K78" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="L78">
-        <v>1</v>
+        <v>0.4206349206349206</v>
       </c>
       <c r="M78" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N78" t="b">
         <v>1</v>
@@ -5293,13 +5293,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C79">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D79">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E79" t="s">
         <v>21</v>
@@ -5308,19 +5308,19 @@
         <v>21</v>
       </c>
       <c r="G79" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="H79" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="I79" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="J79" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="K79" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="L79">
         <v>1</v>
@@ -5352,13 +5352,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E80" t="s">
         <v>21</v>
@@ -5367,25 +5367,25 @@
         <v>21</v>
       </c>
       <c r="G80" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H80" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I80" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J80" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K80" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="L80">
-        <v>1</v>
+        <v>0.5723270440251572</v>
       </c>
       <c r="M80" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N80" t="b">
         <v>1</v>
@@ -5411,13 +5411,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C81">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E81" t="s">
         <v>21</v>
@@ -5426,25 +5426,25 @@
         <v>21</v>
       </c>
       <c r="G81" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H81" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I81" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J81" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="K81" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="L81">
-        <v>0.4206349206349206</v>
+        <v>1</v>
       </c>
       <c r="M81" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N81" t="b">
         <v>1</v>
@@ -5470,13 +5470,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C82">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D82">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E82" t="s">
         <v>21</v>
@@ -5485,19 +5485,19 @@
         <v>21</v>
       </c>
       <c r="G82" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H82" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I82" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J82" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="K82" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="L82">
         <v>1</v>
@@ -5529,13 +5529,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C83">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D83">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E83" t="s">
         <v>21</v>
@@ -5544,25 +5544,25 @@
         <v>21</v>
       </c>
       <c r="G83" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H83" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I83" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J83" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="K83" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="L83">
-        <v>0.5723270440251572</v>
+        <v>1</v>
       </c>
       <c r="M83" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N83" t="b">
         <v>1</v>
@@ -5588,13 +5588,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C84">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D84">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E84" t="s">
         <v>21</v>
@@ -5603,25 +5603,25 @@
         <v>21</v>
       </c>
       <c r="G84" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H84" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I84" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J84" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K84" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="L84">
-        <v>1</v>
+        <v>0.9817629179331308</v>
       </c>
       <c r="M84" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="N84" t="b">
         <v>1</v>
@@ -5647,13 +5647,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C85">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D85">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E85" t="s">
         <v>21</v>
@@ -5662,19 +5662,19 @@
         <v>21</v>
       </c>
       <c r="G85" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H85" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="I85" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J85" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="K85" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="L85">
         <v>1</v>
@@ -5706,13 +5706,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C86">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D86">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
         <v>21</v>
@@ -5721,19 +5721,19 @@
         <v>21</v>
       </c>
       <c r="G86" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H86" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I86" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J86" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K86" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="L86">
         <v>1</v>
@@ -5765,13 +5765,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C87">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D87">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E87" t="s">
         <v>21</v>
@@ -5780,25 +5780,25 @@
         <v>21</v>
       </c>
       <c r="G87" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="H87" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="I87" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="J87" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="K87" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="L87">
-        <v>0.7103825136612022</v>
+        <v>1</v>
       </c>
       <c r="M87" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N87" t="b">
         <v>1</v>
@@ -5807,16 +5807,16 @@
         <v>102</v>
       </c>
       <c r="P87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q87" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="R87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S87" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:19">
@@ -5824,13 +5824,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C88">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D88">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E88" t="s">
         <v>21</v>
@@ -5839,25 +5839,25 @@
         <v>21</v>
       </c>
       <c r="G88" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="H88" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I88" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="J88" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="K88" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="L88">
-        <v>1</v>
+        <v>0.4206349206349206</v>
       </c>
       <c r="M88" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N88" t="b">
         <v>1</v>
@@ -5883,13 +5883,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C89">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D89">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E89" t="s">
         <v>21</v>
@@ -5898,19 +5898,19 @@
         <v>21</v>
       </c>
       <c r="G89" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="H89" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="I89" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="J89" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="K89" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="L89">
         <v>1</v>
@@ -5942,13 +5942,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E90" t="s">
         <v>21</v>
@@ -5957,25 +5957,25 @@
         <v>21</v>
       </c>
       <c r="G90" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H90" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I90" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="J90" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K90" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="L90">
-        <v>1</v>
+        <v>0.5723270440251572</v>
       </c>
       <c r="M90" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N90" t="b">
         <v>1</v>
@@ -6001,13 +6001,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C91">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E91" t="s">
         <v>21</v>
@@ -6016,25 +6016,25 @@
         <v>21</v>
       </c>
       <c r="G91" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H91" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I91" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="J91" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="K91" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="L91">
-        <v>0.4206349206349206</v>
+        <v>1</v>
       </c>
       <c r="M91" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N91" t="b">
         <v>1</v>
@@ -6060,13 +6060,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C92">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D92">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E92" t="s">
         <v>21</v>
@@ -6075,19 +6075,19 @@
         <v>21</v>
       </c>
       <c r="G92" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H92" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I92" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="J92" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="K92" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="L92">
         <v>1</v>
@@ -6119,13 +6119,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C93">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D93">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E93" t="s">
         <v>21</v>
@@ -6134,19 +6134,19 @@
         <v>21</v>
       </c>
       <c r="G93" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H93" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I93" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="J93" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="K93" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="L93">
         <v>1</v>
@@ -6178,13 +6178,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C94">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D94">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E94" t="s">
         <v>21</v>
@@ -6193,25 +6193,25 @@
         <v>21</v>
       </c>
       <c r="G94" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H94" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I94" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="J94" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K94" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="L94">
-        <v>1</v>
+        <v>0.9817629179331308</v>
       </c>
       <c r="M94" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="N94" t="b">
         <v>1</v>
@@ -6237,13 +6237,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C95">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D95">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E95" t="s">
         <v>21</v>
@@ -6252,19 +6252,19 @@
         <v>21</v>
       </c>
       <c r="G95" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H95" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="I95" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="J95" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="K95" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="L95">
         <v>1</v>
@@ -6296,13 +6296,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C96">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D96">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
         <v>21</v>
@@ -6311,19 +6311,19 @@
         <v>21</v>
       </c>
       <c r="G96" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H96" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I96" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="J96" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K96" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="L96">
         <v>1</v>
@@ -6358,31 +6358,31 @@
         <v>19</v>
       </c>
       <c r="C97">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D97">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E97" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F97" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G97" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H97" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I97" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J97" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K97" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L97">
         <v>1</v>
@@ -6417,31 +6417,31 @@
         <v>19</v>
       </c>
       <c r="C98">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D98">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E98" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F98" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G98" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H98" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I98" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J98" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K98" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L98">
         <v>1</v>
@@ -6476,31 +6476,31 @@
         <v>19</v>
       </c>
       <c r="C99">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D99">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E99" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F99" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G99" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H99" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I99" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J99" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K99" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L99">
         <v>1</v>
@@ -6535,31 +6535,31 @@
         <v>19</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E100" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F100" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G100" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H100" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I100" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J100" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K100" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="L100">
         <v>1</v>
@@ -6594,10 +6594,10 @@
         <v>19</v>
       </c>
       <c r="C101">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E101" t="s">
         <v>21</v>
@@ -6606,25 +6606,25 @@
         <v>21</v>
       </c>
       <c r="G101" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H101" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I101" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J101" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K101" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="L101">
-        <v>0.4206349206349206</v>
+        <v>0.9888268156424581</v>
       </c>
       <c r="M101" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N101" t="b">
         <v>1</v>
@@ -6653,16 +6653,16 @@
         <v>19</v>
       </c>
       <c r="C102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E102" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F102" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G102" t="s">
         <v>35</v>
@@ -6671,13 +6671,13 @@
         <v>35</v>
       </c>
       <c r="I102" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J102" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K102" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L102">
         <v>1</v>
@@ -6712,37 +6712,37 @@
         <v>19</v>
       </c>
       <c r="C103">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D103">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E103" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F103" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G103" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H103" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I103" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J103" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K103" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L103">
-        <v>0.5723270440251572</v>
+        <v>1</v>
       </c>
       <c r="M103" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N103" t="b">
         <v>1</v>
@@ -6771,31 +6771,31 @@
         <v>19</v>
       </c>
       <c r="C104">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D104">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E104" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F104" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G104" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H104" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I104" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J104" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K104" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L104">
         <v>1</v>
@@ -6830,31 +6830,31 @@
         <v>19</v>
       </c>
       <c r="C105">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D105">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E105" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F105" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G105" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H105" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I105" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J105" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K105" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L105">
         <v>1</v>
@@ -6889,10 +6889,10 @@
         <v>19</v>
       </c>
       <c r="C106">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D106">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E106" t="s">
         <v>21</v>
@@ -6901,25 +6901,25 @@
         <v>21</v>
       </c>
       <c r="G106" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H106" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I106" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J106" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K106" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="L106">
-        <v>1</v>
+        <v>0.9888268156424581</v>
       </c>
       <c r="M106" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="N106" t="b">
         <v>1</v>
@@ -6948,43 +6948,43 @@
         <v>19</v>
       </c>
       <c r="C107">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D107">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E107" t="s">
         <v>21</v>
       </c>
       <c r="F107" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G107" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H107" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I107" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J107" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K107" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L107">
-        <v>0.9817629179331308</v>
+        <v>1</v>
       </c>
       <c r="M107" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O107" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P107" t="b">
         <v>1</v>
@@ -7007,31 +7007,31 @@
         <v>19</v>
       </c>
       <c r="C108">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D108">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E108" t="s">
         <v>21</v>
       </c>
       <c r="F108" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G108" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H108" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I108" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J108" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K108" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L108">
         <v>1</v>
@@ -7040,10 +7040,10 @@
         <v>99</v>
       </c>
       <c r="N108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O108" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P108" t="b">
         <v>1</v>
@@ -7066,31 +7066,31 @@
         <v>19</v>
       </c>
       <c r="C109">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D109">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E109" t="s">
         <v>21</v>
       </c>
       <c r="F109" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G109" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H109" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I109" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J109" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K109" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L109">
         <v>1</v>
@@ -7099,10 +7099,10 @@
         <v>99</v>
       </c>
       <c r="N109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O109" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P109" t="b">
         <v>1</v>
@@ -7125,31 +7125,31 @@
         <v>19</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E110" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F110" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G110" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H110" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I110" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J110" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K110" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="L110">
         <v>1</v>
@@ -7184,10 +7184,10 @@
         <v>19</v>
       </c>
       <c r="C111">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D111">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E111" t="s">
         <v>21</v>
@@ -7196,25 +7196,25 @@
         <v>21</v>
       </c>
       <c r="G111" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H111" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I111" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J111" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K111" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="L111">
-        <v>0.4206349206349206</v>
+        <v>0.9888268156424581</v>
       </c>
       <c r="M111" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N111" t="b">
         <v>1</v>
@@ -7243,16 +7243,16 @@
         <v>19</v>
       </c>
       <c r="C112">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D112">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E112" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F112" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G112" t="s">
         <v>35</v>
@@ -7261,13 +7261,13 @@
         <v>35</v>
       </c>
       <c r="I112" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J112" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K112" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L112">
         <v>1</v>
@@ -7302,37 +7302,37 @@
         <v>19</v>
       </c>
       <c r="C113">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D113">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E113" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F113" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G113" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H113" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I113" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J113" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K113" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L113">
-        <v>0.5723270440251572</v>
+        <v>1</v>
       </c>
       <c r="M113" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N113" t="b">
         <v>1</v>
@@ -7361,31 +7361,31 @@
         <v>19</v>
       </c>
       <c r="C114">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D114">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E114" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F114" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G114" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H114" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I114" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J114" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K114" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L114">
         <v>1</v>
@@ -7420,37 +7420,37 @@
         <v>19</v>
       </c>
       <c r="C115">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D115">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E115" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F115" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G115" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H115" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I115" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J115" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K115" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L115">
-        <v>1</v>
+        <v>0.7155172413793103</v>
       </c>
       <c r="M115" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N115" t="b">
         <v>1</v>
@@ -7479,10 +7479,10 @@
         <v>19</v>
       </c>
       <c r="C116">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D116">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E116" t="s">
         <v>21</v>
@@ -7491,25 +7491,25 @@
         <v>21</v>
       </c>
       <c r="G116" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H116" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I116" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J116" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K116" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="L116">
-        <v>1</v>
+        <v>0.9888268156424581</v>
       </c>
       <c r="M116" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="N116" t="b">
         <v>1</v>
@@ -7538,31 +7538,31 @@
         <v>19</v>
       </c>
       <c r="C117">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D117">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E117" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F117" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G117" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H117" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I117" t="s">
         <v>55</v>
       </c>
       <c r="J117" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K117" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L117">
         <v>1</v>
@@ -7597,31 +7597,31 @@
         <v>19</v>
       </c>
       <c r="C118">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D118">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E118" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F118" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G118" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H118" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I118" t="s">
         <v>55</v>
       </c>
       <c r="J118" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K118" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L118">
         <v>1</v>
@@ -7656,31 +7656,31 @@
         <v>19</v>
       </c>
       <c r="C119">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D119">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E119" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F119" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G119" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H119" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I119" t="s">
         <v>55</v>
       </c>
       <c r="J119" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K119" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L119">
         <v>1</v>
@@ -7715,37 +7715,37 @@
         <v>19</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E120" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F120" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G120" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H120" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I120" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J120" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="K120" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="L120">
-        <v>1</v>
+        <v>0.7155172413793103</v>
       </c>
       <c r="M120" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N120" t="b">
         <v>1</v>
@@ -7774,10 +7774,10 @@
         <v>19</v>
       </c>
       <c r="C121">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D121">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E121" t="s">
         <v>21</v>
@@ -7786,25 +7786,25 @@
         <v>21</v>
       </c>
       <c r="G121" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H121" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I121" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J121" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K121" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="L121">
-        <v>1</v>
+        <v>0.9888268156424581</v>
       </c>
       <c r="M121" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="N121" t="b">
         <v>1</v>
@@ -7819,10 +7819,10 @@
         <v>102</v>
       </c>
       <c r="R121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S121" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="122" spans="1:19">
@@ -7833,43 +7833,43 @@
         <v>19</v>
       </c>
       <c r="C122">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D122">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E122" t="s">
         <v>21</v>
       </c>
       <c r="F122" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G122" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H122" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I122" t="s">
         <v>56</v>
       </c>
       <c r="J122" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="K122" t="s">
         <v>77</v>
       </c>
       <c r="L122">
-        <v>0.5723270440251572</v>
+        <v>1</v>
       </c>
       <c r="M122" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O122" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P122" t="b">
         <v>1</v>
@@ -7878,10 +7878,10 @@
         <v>102</v>
       </c>
       <c r="R122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S122" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="123" spans="1:19">
@@ -7892,22 +7892,22 @@
         <v>19</v>
       </c>
       <c r="C123">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D123">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E123" t="s">
         <v>21</v>
       </c>
       <c r="F123" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G123" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H123" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I123" t="s">
         <v>56</v>
@@ -7925,10 +7925,10 @@
         <v>99</v>
       </c>
       <c r="N123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O123" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P123" t="b">
         <v>1</v>
@@ -7937,10 +7937,10 @@
         <v>102</v>
       </c>
       <c r="R123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S123" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="124" spans="1:19">
@@ -7951,22 +7951,22 @@
         <v>19</v>
       </c>
       <c r="C124">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D124">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E124" t="s">
         <v>21</v>
       </c>
       <c r="F124" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G124" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H124" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I124" t="s">
         <v>56</v>
@@ -7984,10 +7984,10 @@
         <v>99</v>
       </c>
       <c r="N124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O124" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P124" t="b">
         <v>1</v>
@@ -7996,10 +7996,10 @@
         <v>102</v>
       </c>
       <c r="R124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S124" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="125" spans="1:19">
@@ -8010,37 +8010,37 @@
         <v>19</v>
       </c>
       <c r="C125">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D125">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E125" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F125" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G125" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H125" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I125" t="s">
         <v>56</v>
       </c>
       <c r="J125" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K125" t="s">
         <v>80</v>
       </c>
       <c r="L125">
-        <v>1</v>
+        <v>0.7155172413793103</v>
       </c>
       <c r="M125" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N125" t="b">
         <v>1</v>
@@ -8055,10 +8055,10 @@
         <v>102</v>
       </c>
       <c r="R125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S125" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="126" spans="1:19">
@@ -8069,37 +8069,37 @@
         <v>19</v>
       </c>
       <c r="C126">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D126">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E126" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F126" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G126" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H126" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I126" t="s">
         <v>56</v>
       </c>
       <c r="J126" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K126" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L126">
-        <v>1</v>
+        <v>0.396551724137931</v>
       </c>
       <c r="M126" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N126" t="b">
         <v>1</v>
@@ -8108,10 +8108,10 @@
         <v>102</v>
       </c>
       <c r="P126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q126" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="R126" t="b">
         <v>0</v>
@@ -8128,37 +8128,37 @@
         <v>19</v>
       </c>
       <c r="C127">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D127">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E127" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F127" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G127" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H127" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I127" t="s">
         <v>56</v>
       </c>
       <c r="J127" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K127" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L127">
-        <v>1</v>
+        <v>0.3017241379310345</v>
       </c>
       <c r="M127" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N127" t="b">
         <v>1</v>
@@ -8167,10 +8167,10 @@
         <v>102</v>
       </c>
       <c r="P127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q127" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="R127" t="b">
         <v>0</v>
@@ -8187,10 +8187,10 @@
         <v>19</v>
       </c>
       <c r="C128">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D128">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E128" t="s">
         <v>21</v>
@@ -8199,25 +8199,25 @@
         <v>21</v>
       </c>
       <c r="G128" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H128" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I128" t="s">
         <v>56</v>
       </c>
       <c r="J128" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K128" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="L128">
-        <v>1</v>
+        <v>0.9888268156424581</v>
       </c>
       <c r="M128" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="N128" t="b">
         <v>1</v>
@@ -8252,25 +8252,25 @@
         <v>1</v>
       </c>
       <c r="E129" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F129" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G129" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H129" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I129" t="s">
         <v>57</v>
       </c>
       <c r="J129" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K129" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L129">
         <v>1</v>
@@ -8311,31 +8311,31 @@
         <v>2</v>
       </c>
       <c r="E130" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F130" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G130" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H130" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I130" t="s">
         <v>57</v>
       </c>
       <c r="J130" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K130" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L130">
-        <v>0.4206349206349206</v>
+        <v>1</v>
       </c>
       <c r="M130" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N130" t="b">
         <v>1</v>
@@ -8370,25 +8370,25 @@
         <v>3</v>
       </c>
       <c r="E131" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F131" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G131" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H131" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I131" t="s">
         <v>57</v>
       </c>
       <c r="J131" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K131" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L131">
         <v>1</v>
@@ -8429,31 +8429,31 @@
         <v>4</v>
       </c>
       <c r="E132" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F132" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G132" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H132" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I132" t="s">
         <v>57</v>
       </c>
       <c r="J132" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K132" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L132">
-        <v>0.5723270440251572</v>
+        <v>1</v>
       </c>
       <c r="M132" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N132" t="b">
         <v>1</v>
@@ -8494,25 +8494,25 @@
         <v>21</v>
       </c>
       <c r="G133" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H133" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I133" t="s">
         <v>57</v>
       </c>
       <c r="J133" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K133" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="L133">
-        <v>1</v>
+        <v>0.9888268156424581</v>
       </c>
       <c r="M133" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="N133" t="b">
         <v>1</v>
@@ -8541,31 +8541,31 @@
         <v>19</v>
       </c>
       <c r="C134">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D134">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E134" t="s">
         <v>21</v>
       </c>
       <c r="F134" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G134" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H134" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I134" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J134" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K134" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L134">
         <v>1</v>
@@ -8574,10 +8574,10 @@
         <v>99</v>
       </c>
       <c r="N134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O134" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P134" t="b">
         <v>1</v>
@@ -8600,31 +8600,31 @@
         <v>19</v>
       </c>
       <c r="C135">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D135">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E135" t="s">
         <v>21</v>
       </c>
       <c r="F135" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G135" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H135" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I135" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J135" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K135" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L135">
         <v>1</v>
@@ -8633,10 +8633,10 @@
         <v>99</v>
       </c>
       <c r="N135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O135" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P135" t="b">
         <v>1</v>
@@ -8659,55 +8659,55 @@
         <v>19</v>
       </c>
       <c r="C136">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D136">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E136" t="s">
         <v>21</v>
       </c>
       <c r="F136" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G136" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H136" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I136" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J136" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="K136" t="s">
         <v>79</v>
       </c>
       <c r="L136">
-        <v>0.7103825136612022</v>
+        <v>1</v>
       </c>
       <c r="M136" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O136" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q136" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="R136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S136" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="137" spans="1:19">
@@ -8718,37 +8718,37 @@
         <v>19</v>
       </c>
       <c r="C137">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D137">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E137" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F137" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G137" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H137" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I137" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J137" t="s">
         <v>82</v>
       </c>
       <c r="K137" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L137">
-        <v>1</v>
+        <v>0.7155172413793103</v>
       </c>
       <c r="M137" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N137" t="b">
         <v>1</v>
@@ -8777,10 +8777,10 @@
         <v>19</v>
       </c>
       <c r="C138">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D138">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E138" t="s">
         <v>21</v>
@@ -8789,25 +8789,25 @@
         <v>21</v>
       </c>
       <c r="G138" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H138" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I138" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J138" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K138" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="L138">
-        <v>1</v>
+        <v>0.9888268156424581</v>
       </c>
       <c r="M138" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="N138" t="b">
         <v>1</v>
@@ -8839,34 +8839,34 @@
         <v>1</v>
       </c>
       <c r="D139">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E139" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F139" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G139" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H139" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I139" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J139" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K139" t="s">
         <v>77</v>
       </c>
       <c r="L139">
-        <v>0.4640287769784173</v>
+        <v>1</v>
       </c>
       <c r="M139" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N139" t="b">
         <v>1</v>
@@ -8875,16 +8875,16 @@
         <v>102</v>
       </c>
       <c r="P139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q139" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="R139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S139" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="140" spans="1:19">
@@ -8898,34 +8898,34 @@
         <v>2</v>
       </c>
       <c r="D140">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E140" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F140" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G140" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H140" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I140" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J140" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K140" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L140">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="M140" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N140" t="b">
         <v>1</v>
@@ -8934,16 +8934,16 @@
         <v>102</v>
       </c>
       <c r="P140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q140" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="R140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S140" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="141" spans="1:19">
@@ -8957,28 +8957,28 @@
         <v>3</v>
       </c>
       <c r="D141">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E141" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F141" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G141" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H141" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I141" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J141" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K141" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L141">
         <v>1</v>
@@ -8999,10 +8999,10 @@
         <v>102</v>
       </c>
       <c r="R141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S141" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="142" spans="1:19">
@@ -9016,34 +9016,34 @@
         <v>4</v>
       </c>
       <c r="D142">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E142" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F142" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G142" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H142" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I142" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J142" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="K142" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L142">
-        <v>0.9817629179331308</v>
+        <v>1</v>
       </c>
       <c r="M142" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N142" t="b">
         <v>1</v>
@@ -9058,10 +9058,10 @@
         <v>102</v>
       </c>
       <c r="R142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S142" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="143" spans="1:19">
@@ -9075,7 +9075,7 @@
         <v>5</v>
       </c>
       <c r="D143">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E143" t="s">
         <v>21</v>
@@ -9084,25 +9084,25 @@
         <v>21</v>
       </c>
       <c r="G143" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H143" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I143" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J143" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K143" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="L143">
-        <v>1</v>
+        <v>0.9888268156424581</v>
       </c>
       <c r="M143" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="N143" t="b">
         <v>1</v>
@@ -9117,10 +9117,10 @@
         <v>102</v>
       </c>
       <c r="R143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S143" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="144" spans="1:19">
@@ -9131,31 +9131,31 @@
         <v>19</v>
       </c>
       <c r="C144">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D144">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E144" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F144" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G144" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H144" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I144" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J144" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K144" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L144">
         <v>1</v>
@@ -9176,10 +9176,10 @@
         <v>102</v>
       </c>
       <c r="R144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S144" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="145" spans="1:19">
@@ -9190,31 +9190,31 @@
         <v>19</v>
       </c>
       <c r="C145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E145" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F145" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G145" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H145" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I145" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J145" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K145" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L145">
         <v>1</v>
@@ -9249,37 +9249,37 @@
         <v>19</v>
       </c>
       <c r="C146">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D146">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E146" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F146" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G146" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H146" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I146" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J146" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="K146" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L146">
-        <v>0.4206349206349206</v>
+        <v>1</v>
       </c>
       <c r="M146" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N146" t="b">
         <v>1</v>
@@ -9308,31 +9308,31 @@
         <v>19</v>
       </c>
       <c r="C147">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D147">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E147" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F147" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G147" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H147" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I147" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J147" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K147" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L147">
         <v>1</v>
@@ -9367,10 +9367,10 @@
         <v>19</v>
       </c>
       <c r="C148">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D148">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E148" t="s">
         <v>21</v>
@@ -9379,25 +9379,25 @@
         <v>21</v>
       </c>
       <c r="G148" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H148" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I148" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J148" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K148" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="L148">
-        <v>0.5723270440251572</v>
+        <v>0.9888268156424581</v>
       </c>
       <c r="M148" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N148" t="b">
         <v>1</v>
@@ -9423,13 +9423,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C149">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D149">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E149" t="s">
         <v>21</v>
@@ -9438,19 +9438,19 @@
         <v>21</v>
       </c>
       <c r="G149" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H149" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I149" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J149" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K149" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="L149">
         <v>1</v>
@@ -9482,13 +9482,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C150">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D150">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E150" t="s">
         <v>21</v>
@@ -9497,19 +9497,19 @@
         <v>21</v>
       </c>
       <c r="G150" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H150" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I150" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J150" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="K150" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="L150">
         <v>1</v>
@@ -9541,40 +9541,40 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C151">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D151">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E151" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F151" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G151" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H151" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I151" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J151" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="K151" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="L151">
-        <v>1</v>
+        <v>0.6438848920863309</v>
       </c>
       <c r="M151" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N151" t="b">
         <v>1</v>
@@ -9600,40 +9600,40 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C152">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D152">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E152" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F152" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G152" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H152" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I152" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J152" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K152" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="L152">
-        <v>0.9817629179331308</v>
+        <v>1</v>
       </c>
       <c r="M152" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N152" t="b">
         <v>1</v>
@@ -9659,13 +9659,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C153">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D153">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E153" t="s">
         <v>21</v>
@@ -9674,19 +9674,19 @@
         <v>21</v>
       </c>
       <c r="G153" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H153" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I153" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J153" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K153" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="L153">
         <v>1</v>
@@ -9718,13 +9718,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C154">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D154">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E154" t="s">
         <v>21</v>
@@ -9733,19 +9733,19 @@
         <v>21</v>
       </c>
       <c r="G154" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H154" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I154" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J154" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K154" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="L154">
         <v>1</v>
@@ -9777,13 +9777,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D155">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E155" t="s">
         <v>21</v>
@@ -9792,19 +9792,19 @@
         <v>21</v>
       </c>
       <c r="G155" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H155" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="I155" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="J155" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="K155" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="L155">
         <v>1</v>
@@ -9836,13 +9836,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E156" t="s">
         <v>21</v>
@@ -9851,25 +9851,25 @@
         <v>21</v>
       </c>
       <c r="G156" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H156" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I156" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="J156" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K156" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="L156">
-        <v>0.4206349206349206</v>
+        <v>1</v>
       </c>
       <c r="M156" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N156" t="b">
         <v>1</v>
@@ -9895,13 +9895,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C157">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D157">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E157" t="s">
         <v>21</v>
@@ -9910,19 +9910,19 @@
         <v>21</v>
       </c>
       <c r="G157" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H157" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="I157" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="J157" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K157" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="L157">
         <v>1</v>
@@ -9954,40 +9954,40 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C158">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D158">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E158" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F158" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G158" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H158" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="I158" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="J158" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="K158" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="L158">
-        <v>0.5723270440251572</v>
+        <v>1</v>
       </c>
       <c r="M158" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N158" t="b">
         <v>1</v>
@@ -10013,34 +10013,34 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C159">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D159">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E159" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F159" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G159" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H159" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="I159" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="J159" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K159" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="L159">
         <v>1</v>
@@ -10072,13 +10072,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C160">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D160">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E160" t="s">
         <v>21</v>
@@ -10087,19 +10087,19 @@
         <v>21</v>
       </c>
       <c r="G160" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H160" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="I160" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="J160" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K160" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="L160">
         <v>1</v>
@@ -10131,13 +10131,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C161">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D161">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E161" t="s">
         <v>21</v>
@@ -10146,19 +10146,19 @@
         <v>21</v>
       </c>
       <c r="G161" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H161" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I161" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="J161" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K161" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="L161">
         <v>1</v>
@@ -10190,13 +10190,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C162">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D162">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E162" t="s">
         <v>21</v>
@@ -10205,25 +10205,25 @@
         <v>21</v>
       </c>
       <c r="G162" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H162" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="I162" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="J162" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K162" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="L162">
-        <v>0.9817629179331308</v>
+        <v>1</v>
       </c>
       <c r="M162" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N162" t="b">
         <v>1</v>
@@ -10249,13 +10249,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C163">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D163">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E163" t="s">
         <v>21</v>
@@ -10264,19 +10264,19 @@
         <v>21</v>
       </c>
       <c r="G163" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H163" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I163" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J163" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K163" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L163">
         <v>1</v>
@@ -10297,10 +10297,10 @@
         <v>102</v>
       </c>
       <c r="R163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S163" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="164" spans="1:19">
@@ -10308,40 +10308,40 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C164">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D164">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E164" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F164" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G164" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H164" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I164" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J164" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K164" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="L164">
-        <v>1</v>
+        <v>0.6438848920863309</v>
       </c>
       <c r="M164" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N164" t="b">
         <v>1</v>
@@ -10356,10 +10356,10 @@
         <v>102</v>
       </c>
       <c r="R164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S164" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="165" spans="1:19">
@@ -10370,10 +10370,10 @@
         <v>20</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E165" t="s">
         <v>22</v>
@@ -10382,19 +10382,19 @@
         <v>22</v>
       </c>
       <c r="G165" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H165" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I165" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J165" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K165" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L165">
         <v>1</v>
@@ -10415,10 +10415,10 @@
         <v>102</v>
       </c>
       <c r="R165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S165" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="166" spans="1:19">
@@ -10429,16 +10429,16 @@
         <v>20</v>
       </c>
       <c r="C166">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D166">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E166" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F166" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G166" t="s">
         <v>45</v>
@@ -10447,13 +10447,13 @@
         <v>45</v>
       </c>
       <c r="I166" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J166" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K166" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L166">
         <v>1</v>
@@ -10474,10 +10474,10 @@
         <v>102</v>
       </c>
       <c r="R166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S166" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="167" spans="1:19">
@@ -10488,16 +10488,16 @@
         <v>20</v>
       </c>
       <c r="C167">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D167">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E167" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F167" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G167" t="s">
         <v>46</v>
@@ -10506,13 +10506,13 @@
         <v>46</v>
       </c>
       <c r="I167" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J167" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K167" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L167">
         <v>1</v>
@@ -10533,10 +10533,10 @@
         <v>102</v>
       </c>
       <c r="R167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S167" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="168" spans="1:19">
@@ -10547,16 +10547,16 @@
         <v>20</v>
       </c>
       <c r="C168">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D168">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E168" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F168" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G168" t="s">
         <v>47</v>
@@ -10565,13 +10565,13 @@
         <v>47</v>
       </c>
       <c r="I168" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J168" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K168" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L168">
         <v>1</v>
@@ -10592,10 +10592,10 @@
         <v>102</v>
       </c>
       <c r="R168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S168" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="169" spans="1:19">
@@ -10606,10 +10606,10 @@
         <v>20</v>
       </c>
       <c r="C169">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D169">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E169" t="s">
         <v>21</v>
@@ -10618,25 +10618,25 @@
         <v>21</v>
       </c>
       <c r="G169" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H169" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I169" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J169" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="K169" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="L169">
-        <v>0.9888268156424581</v>
+        <v>1</v>
       </c>
       <c r="M169" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N169" t="b">
         <v>1</v>
@@ -10665,31 +10665,31 @@
         <v>20</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E170" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F170" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G170" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H170" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I170" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J170" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K170" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L170">
         <v>1</v>
@@ -10724,10 +10724,10 @@
         <v>20</v>
       </c>
       <c r="C171">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D171">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E171" t="s">
         <v>22</v>
@@ -10736,19 +10736,19 @@
         <v>22</v>
       </c>
       <c r="G171" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H171" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I171" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J171" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K171" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L171">
         <v>1</v>
@@ -10783,10 +10783,10 @@
         <v>20</v>
       </c>
       <c r="C172">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D172">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E172" t="s">
         <v>22</v>
@@ -10795,19 +10795,19 @@
         <v>22</v>
       </c>
       <c r="G172" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H172" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I172" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J172" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K172" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L172">
         <v>1</v>
@@ -10842,31 +10842,31 @@
         <v>20</v>
       </c>
       <c r="C173">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D173">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E173" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F173" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G173" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H173" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I173" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J173" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K173" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L173">
         <v>1</v>
@@ -10901,10 +10901,10 @@
         <v>20</v>
       </c>
       <c r="C174">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D174">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E174" t="s">
         <v>21</v>
@@ -10913,22 +10913,22 @@
         <v>21</v>
       </c>
       <c r="G174" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H174" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I174" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J174" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K174" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="L174">
-        <v>0.9888268156424581</v>
+        <v>0.9600840336134454</v>
       </c>
       <c r="M174" t="s">
         <v>101</v>
@@ -10960,31 +10960,31 @@
         <v>20</v>
       </c>
       <c r="C175">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D175">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E175" t="s">
         <v>21</v>
       </c>
       <c r="F175" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G175" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H175" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I175" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J175" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K175" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L175">
         <v>1</v>
@@ -10993,10 +10993,10 @@
         <v>99</v>
       </c>
       <c r="N175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O175" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P175" t="b">
         <v>1</v>
@@ -11019,31 +11019,31 @@
         <v>20</v>
       </c>
       <c r="C176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E176" t="s">
         <v>21</v>
       </c>
       <c r="F176" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G176" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H176" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I176" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J176" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K176" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="L176">
         <v>1</v>
@@ -11052,10 +11052,10 @@
         <v>99</v>
       </c>
       <c r="N176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O176" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P176" t="b">
         <v>1</v>
@@ -11078,31 +11078,31 @@
         <v>20</v>
       </c>
       <c r="C177">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D177">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E177" t="s">
         <v>21</v>
       </c>
       <c r="F177" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G177" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H177" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I177" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J177" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K177" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="L177">
         <v>1</v>
@@ -11111,10 +11111,10 @@
         <v>99</v>
       </c>
       <c r="N177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O177" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P177" t="b">
         <v>1</v>
@@ -11137,10 +11137,10 @@
         <v>20</v>
       </c>
       <c r="C178">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D178">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E178" t="s">
         <v>22</v>
@@ -11149,19 +11149,19 @@
         <v>22</v>
       </c>
       <c r="G178" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H178" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I178" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J178" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K178" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L178">
         <v>1</v>
@@ -11196,37 +11196,37 @@
         <v>20</v>
       </c>
       <c r="C179">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D179">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E179" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F179" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G179" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H179" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I179" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J179" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K179" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="L179">
-        <v>0.9888268156424581</v>
+        <v>1</v>
       </c>
       <c r="M179" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N179" t="b">
         <v>1</v>
@@ -11255,16 +11255,16 @@
         <v>20</v>
       </c>
       <c r="C180">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D180">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E180" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F180" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G180" t="s">
         <v>45</v>
@@ -11273,13 +11273,13 @@
         <v>45</v>
       </c>
       <c r="I180" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J180" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K180" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L180">
         <v>1</v>
@@ -11314,37 +11314,37 @@
         <v>20</v>
       </c>
       <c r="C181">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D181">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E181" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F181" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G181" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H181" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I181" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J181" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K181" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L181">
-        <v>1</v>
+        <v>0.9600840336134454</v>
       </c>
       <c r="M181" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="N181" t="b">
         <v>1</v>
@@ -11373,31 +11373,31 @@
         <v>20</v>
       </c>
       <c r="C182">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D182">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E182" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F182" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G182" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H182" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I182" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J182" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K182" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L182">
         <v>1</v>
@@ -11432,37 +11432,37 @@
         <v>20</v>
       </c>
       <c r="C183">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D183">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E183" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F183" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G183" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H183" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I183" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J183" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="K183" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="L183">
-        <v>0.7155172413793103</v>
+        <v>1</v>
       </c>
       <c r="M183" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N183" t="b">
         <v>1</v>
@@ -11491,37 +11491,37 @@
         <v>20</v>
       </c>
       <c r="C184">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D184">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E184" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F184" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G184" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H184" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="I184" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J184" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="K184" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="L184">
-        <v>0.9888268156424581</v>
+        <v>0.6438848920863309</v>
       </c>
       <c r="M184" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N184" t="b">
         <v>1</v>
@@ -11536,10 +11536,10 @@
         <v>102</v>
       </c>
       <c r="R184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S184" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="185" spans="1:19">
@@ -11550,10 +11550,10 @@
         <v>20</v>
       </c>
       <c r="C185">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D185">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E185" t="s">
         <v>22</v>
@@ -11562,19 +11562,19 @@
         <v>22</v>
       </c>
       <c r="G185" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H185" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I185" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J185" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K185" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L185">
         <v>1</v>
@@ -11595,10 +11595,10 @@
         <v>102</v>
       </c>
       <c r="R185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S185" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="186" spans="1:19">
@@ -11609,16 +11609,16 @@
         <v>20</v>
       </c>
       <c r="C186">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D186">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E186" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F186" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G186" t="s">
         <v>45</v>
@@ -11627,13 +11627,13 @@
         <v>45</v>
       </c>
       <c r="I186" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J186" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K186" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L186">
         <v>1</v>
@@ -11654,10 +11654,10 @@
         <v>102</v>
       </c>
       <c r="R186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S186" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="187" spans="1:19">
@@ -11668,16 +11668,16 @@
         <v>20</v>
       </c>
       <c r="C187">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D187">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E187" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F187" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G187" t="s">
         <v>46</v>
@@ -11686,13 +11686,13 @@
         <v>46</v>
       </c>
       <c r="I187" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J187" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K187" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L187">
         <v>1</v>
@@ -11713,10 +11713,10 @@
         <v>102</v>
       </c>
       <c r="R187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S187" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="188" spans="1:19">
@@ -11727,16 +11727,16 @@
         <v>20</v>
       </c>
       <c r="C188">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D188">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E188" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F188" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G188" t="s">
         <v>47</v>
@@ -11745,19 +11745,19 @@
         <v>47</v>
       </c>
       <c r="I188" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J188" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K188" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L188">
-        <v>0.7155172413793103</v>
+        <v>1</v>
       </c>
       <c r="M188" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N188" t="b">
         <v>1</v>
@@ -11772,10 +11772,10 @@
         <v>102</v>
       </c>
       <c r="R188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S188" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="189" spans="1:19">
@@ -11786,10 +11786,10 @@
         <v>20</v>
       </c>
       <c r="C189">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D189">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E189" t="s">
         <v>21</v>
@@ -11798,25 +11798,25 @@
         <v>21</v>
       </c>
       <c r="G189" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H189" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I189" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J189" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="K189" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="L189">
-        <v>0.9888268156424581</v>
+        <v>1</v>
       </c>
       <c r="M189" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N189" t="b">
         <v>1</v>
@@ -11845,31 +11845,31 @@
         <v>20</v>
       </c>
       <c r="C190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E190" t="s">
         <v>21</v>
       </c>
       <c r="F190" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G190" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H190" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I190" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J190" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K190" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L190">
         <v>1</v>
@@ -11878,10 +11878,10 @@
         <v>99</v>
       </c>
       <c r="N190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O190" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P190" t="b">
         <v>1</v>
@@ -11904,43 +11904,43 @@
         <v>20</v>
       </c>
       <c r="C191">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D191">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E191" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F191" t="s">
         <v>22</v>
       </c>
       <c r="G191" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H191" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I191" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J191" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K191" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L191">
-        <v>1</v>
+        <v>0.6438848920863309</v>
       </c>
       <c r="M191" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O191" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P191" t="b">
         <v>1</v>
@@ -11963,31 +11963,31 @@
         <v>20</v>
       </c>
       <c r="C192">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D192">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E192" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F192" t="s">
         <v>22</v>
       </c>
       <c r="G192" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H192" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I192" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J192" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K192" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L192">
         <v>1</v>
@@ -11996,10 +11996,10 @@
         <v>99</v>
       </c>
       <c r="N192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O192" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P192" t="b">
         <v>1</v>
@@ -12022,37 +12022,37 @@
         <v>20</v>
       </c>
       <c r="C193">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D193">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E193" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F193" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G193" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H193" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I193" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J193" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="K193" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L193">
-        <v>0.7155172413793103</v>
+        <v>1</v>
       </c>
       <c r="M193" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N193" t="b">
         <v>1</v>
@@ -12081,34 +12081,34 @@
         <v>20</v>
       </c>
       <c r="C194">
+        <v>6</v>
+      </c>
+      <c r="D194">
         <v>5</v>
       </c>
-      <c r="D194">
-        <v>4</v>
-      </c>
       <c r="E194" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F194" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G194" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H194" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I194" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J194" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K194" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L194">
-        <v>0.396551724137931</v>
+        <v>0.3033175355450237</v>
       </c>
       <c r="M194" t="s">
         <v>100</v>
@@ -12140,34 +12140,34 @@
         <v>20</v>
       </c>
       <c r="C195">
+        <v>7</v>
+      </c>
+      <c r="D195">
         <v>6</v>
       </c>
-      <c r="D195">
-        <v>4</v>
-      </c>
       <c r="E195" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F195" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G195" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H195" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I195" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J195" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K195" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L195">
-        <v>0.3017241379310345</v>
+        <v>0.3869565217391304</v>
       </c>
       <c r="M195" t="s">
         <v>100</v>
@@ -12199,10 +12199,10 @@
         <v>20</v>
       </c>
       <c r="C196">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D196">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E196" t="s">
         <v>21</v>
@@ -12211,25 +12211,25 @@
         <v>21</v>
       </c>
       <c r="G196" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H196" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I196" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J196" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K196" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="L196">
-        <v>0.9888268156424581</v>
+        <v>0.441304347826087</v>
       </c>
       <c r="M196" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N196" t="b">
         <v>1</v>
@@ -12238,10 +12238,10 @@
         <v>102</v>
       </c>
       <c r="P196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q196" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="R196" t="b">
         <v>0</v>
@@ -12258,31 +12258,31 @@
         <v>20</v>
       </c>
       <c r="C197">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D197">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E197" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F197" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G197" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H197" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I197" t="s">
         <v>57</v>
       </c>
       <c r="J197" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K197" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L197">
         <v>1</v>
@@ -12303,10 +12303,10 @@
         <v>102</v>
       </c>
       <c r="R197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S197" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="198" spans="1:19">
@@ -12317,31 +12317,31 @@
         <v>20</v>
       </c>
       <c r="C198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E198" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F198" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G198" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H198" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I198" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J198" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K198" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="L198">
         <v>1</v>
@@ -12376,7 +12376,7 @@
         <v>20</v>
       </c>
       <c r="C199">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D199">
         <v>3</v>
@@ -12388,13 +12388,13 @@
         <v>22</v>
       </c>
       <c r="G199" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H199" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I199" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J199" t="s">
         <v>92</v>
@@ -12421,10 +12421,10 @@
         <v>102</v>
       </c>
       <c r="R199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S199" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="200" spans="1:19">
@@ -12435,7 +12435,7 @@
         <v>20</v>
       </c>
       <c r="C200">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D200">
         <v>4</v>
@@ -12447,19 +12447,19 @@
         <v>22</v>
       </c>
       <c r="G200" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H200" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I200" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J200" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K200" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L200">
         <v>1</v>
@@ -12480,10 +12480,10 @@
         <v>102</v>
       </c>
       <c r="R200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S200" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="201" spans="1:19">
@@ -12494,7 +12494,7 @@
         <v>20</v>
       </c>
       <c r="C201">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D201">
         <v>5</v>
@@ -12506,25 +12506,25 @@
         <v>21</v>
       </c>
       <c r="G201" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H201" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I201" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J201" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="K201" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="L201">
-        <v>0.9888268156424581</v>
+        <v>1</v>
       </c>
       <c r="M201" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N201" t="b">
         <v>1</v>
@@ -12539,10 +12539,10 @@
         <v>102</v>
       </c>
       <c r="R201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S201" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="202" spans="1:19">
@@ -12553,22 +12553,22 @@
         <v>20</v>
       </c>
       <c r="C202">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D202">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E202" t="s">
         <v>21</v>
       </c>
       <c r="F202" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G202" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H202" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I202" t="s">
         <v>58</v>
@@ -12586,22 +12586,22 @@
         <v>99</v>
       </c>
       <c r="N202" t="b">
+        <v>1</v>
+      </c>
+      <c r="O202" t="s">
+        <v>102</v>
+      </c>
+      <c r="P202" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q202" t="s">
+        <v>102</v>
+      </c>
+      <c r="R202" t="b">
         <v>0</v>
       </c>
-      <c r="O202" t="s">
+      <c r="S202" t="s">
         <v>103</v>
-      </c>
-      <c r="P202" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q202" t="s">
-        <v>102</v>
-      </c>
-      <c r="R202" t="b">
-        <v>1</v>
-      </c>
-      <c r="S202" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="203" spans="1:19">
@@ -12612,22 +12612,22 @@
         <v>20</v>
       </c>
       <c r="C203">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D203">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E203" t="s">
         <v>21</v>
       </c>
       <c r="F203" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G203" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H203" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I203" t="s">
         <v>58</v>
@@ -12645,22 +12645,22 @@
         <v>99</v>
       </c>
       <c r="N203" t="b">
+        <v>1</v>
+      </c>
+      <c r="O203" t="s">
+        <v>102</v>
+      </c>
+      <c r="P203" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q203" t="s">
+        <v>102</v>
+      </c>
+      <c r="R203" t="b">
         <v>0</v>
       </c>
-      <c r="O203" t="s">
+      <c r="S203" t="s">
         <v>103</v>
-      </c>
-      <c r="P203" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q203" t="s">
-        <v>102</v>
-      </c>
-      <c r="R203" t="b">
-        <v>1</v>
-      </c>
-      <c r="S203" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="204" spans="1:19">
@@ -12671,31 +12671,31 @@
         <v>20</v>
       </c>
       <c r="C204">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D204">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E204" t="s">
         <v>21</v>
       </c>
       <c r="F204" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G204" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H204" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I204" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J204" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K204" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L204">
         <v>1</v>
@@ -12704,10 +12704,10 @@
         <v>99</v>
       </c>
       <c r="N204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O204" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P204" t="b">
         <v>1</v>
@@ -12730,37 +12730,37 @@
         <v>20</v>
       </c>
       <c r="C205">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D205">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E205" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F205" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G205" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H205" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I205" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J205" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="K205" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="L205">
-        <v>0.7155172413793103</v>
+        <v>1</v>
       </c>
       <c r="M205" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N205" t="b">
         <v>1</v>
@@ -12789,37 +12789,37 @@
         <v>20</v>
       </c>
       <c r="C206">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D206">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E206" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F206" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G206" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H206" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="I206" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J206" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K206" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="L206">
-        <v>0.9888268156424581</v>
+        <v>1</v>
       </c>
       <c r="M206" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N206" t="b">
         <v>1</v>
@@ -12848,10 +12848,10 @@
         <v>20</v>
       </c>
       <c r="C207">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D207">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E207" t="s">
         <v>22</v>
@@ -12860,19 +12860,19 @@
         <v>22</v>
       </c>
       <c r="G207" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H207" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I207" t="s">
         <v>59</v>
       </c>
       <c r="J207" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K207" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L207">
         <v>1</v>
@@ -12907,16 +12907,16 @@
         <v>20</v>
       </c>
       <c r="C208">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D208">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E208" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F208" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G208" t="s">
         <v>45</v>
@@ -12928,10 +12928,10 @@
         <v>59</v>
       </c>
       <c r="J208" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K208" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L208">
         <v>1</v>
@@ -12966,16 +12966,16 @@
         <v>20</v>
       </c>
       <c r="C209">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D209">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E209" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F209" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G209" t="s">
         <v>46</v>
@@ -12987,16 +12987,16 @@
         <v>59</v>
       </c>
       <c r="J209" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K209" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L209">
-        <v>1</v>
+        <v>0.9600840336134454</v>
       </c>
       <c r="M209" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="N209" t="b">
         <v>1</v>
@@ -13025,16 +13025,16 @@
         <v>20</v>
       </c>
       <c r="C210">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D210">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E210" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F210" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G210" t="s">
         <v>47</v>
@@ -13046,10 +13046,10 @@
         <v>59</v>
       </c>
       <c r="J210" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K210" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L210">
         <v>1</v>
@@ -13084,10 +13084,10 @@
         <v>20</v>
       </c>
       <c r="C211">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D211">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E211" t="s">
         <v>21</v>
@@ -13096,25 +13096,25 @@
         <v>21</v>
       </c>
       <c r="G211" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H211" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I211" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J211" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="K211" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="L211">
-        <v>0.9888268156424581</v>
+        <v>1</v>
       </c>
       <c r="M211" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N211" t="b">
         <v>1</v>
@@ -13143,10 +13143,10 @@
         <v>20</v>
       </c>
       <c r="C212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D212">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E212" t="s">
         <v>22</v>
@@ -13155,25 +13155,25 @@
         <v>22</v>
       </c>
       <c r="G212" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H212" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I212" t="s">
         <v>60</v>
       </c>
       <c r="J212" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K212" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L212">
-        <v>1</v>
+        <v>0.6007194244604317</v>
       </c>
       <c r="M212" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N212" t="b">
         <v>1</v>
@@ -13188,10 +13188,10 @@
         <v>102</v>
       </c>
       <c r="R212" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S212" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="213" spans="1:19">
@@ -13202,10 +13202,10 @@
         <v>20</v>
       </c>
       <c r="C213">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D213">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E213" t="s">
         <v>22</v>
@@ -13214,19 +13214,19 @@
         <v>22</v>
       </c>
       <c r="G213" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H213" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I213" t="s">
         <v>60</v>
       </c>
       <c r="J213" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K213" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L213">
         <v>1</v>
@@ -13247,10 +13247,10 @@
         <v>102</v>
       </c>
       <c r="R213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S213" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="214" spans="1:19">
@@ -13261,31 +13261,31 @@
         <v>20</v>
       </c>
       <c r="C214">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D214">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E214" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F214" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G214" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H214" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I214" t="s">
         <v>60</v>
       </c>
       <c r="J214" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K214" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L214">
         <v>1</v>
@@ -13306,10 +13306,10 @@
         <v>102</v>
       </c>
       <c r="R214" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S214" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="215" spans="1:19">
@@ -13320,31 +13320,31 @@
         <v>20</v>
       </c>
       <c r="C215">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D215">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E215" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F215" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G215" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H215" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I215" t="s">
         <v>60</v>
       </c>
       <c r="J215" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K215" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L215">
         <v>1</v>
@@ -13365,10 +13365,10 @@
         <v>102</v>
       </c>
       <c r="R215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S215" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="216" spans="1:19">
@@ -13379,10 +13379,10 @@
         <v>20</v>
       </c>
       <c r="C216">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D216">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E216" t="s">
         <v>21</v>
@@ -13391,25 +13391,25 @@
         <v>21</v>
       </c>
       <c r="G216" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H216" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I216" t="s">
         <v>60</v>
       </c>
       <c r="J216" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K216" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="L216">
-        <v>0.9888268156424581</v>
+        <v>1</v>
       </c>
       <c r="M216" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N216" t="b">
         <v>1</v>
@@ -13424,10 +13424,10 @@
         <v>102</v>
       </c>
       <c r="R216" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S216" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
